--- a/docs/artefatos-15-23/COZINHA/Analise_de_Eventos_COZINHA.xlsx
+++ b/docs/artefatos-15-23/COZINHA/Analise_de_Eventos_COZINHA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -82,15 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ingredientes indisponíveis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status do pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajudante informa status do pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(3)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +123,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +160,6 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
@@ -231,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,10 +290,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,7 +357,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -396,18 +377,18 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="70"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.57"/>
@@ -541,47 +522,26 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="19"/>
+    </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="20"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
